--- a/temp/带宽.xlsx
+++ b/temp/带宽.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +584,673 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>182315IDC00077</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>盐城</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>300G</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>120.74</v>
+      </c>
+      <c r="R2" t="n">
+        <v>813787.6</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>120.741</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>YANC3CM</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>182315IDC00077</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>盐城</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>300G</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>120.1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>809474</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>202306</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>120.101051331</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>YANC3CM</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>182315IDC00077</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>盐城</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>300G</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>46.10000000000001</v>
+      </c>
+      <c r="R4" t="n">
+        <v>310714</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>补提5月盐城3移动带宽结算差异，结算166.84G，提120.74G，补46.1G(更新流量)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>120.741</v>
+      </c>
+      <c r="W4" t="n">
+        <v>166.84</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>182315IDC00077</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>盐城</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>44835</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>300G</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.110000000000014</v>
+      </c>
+      <c r="R5" t="n">
+        <v>61401.4</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>202306</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>补提6月盐城3移动带宽结算差异，结算129.21G，提120.1G，补9.11G</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>120.101051331</v>
+      </c>
+      <c r="W5" t="n">
+        <v>129.21</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>182315IDC00158</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>盐城</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2019/2/1
+2022/4/30</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>240G
+-40G</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>115.62</v>
+      </c>
+      <c r="R6" t="n">
+        <v>779278.8</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>2022.6该节点转为BEC使用。
+2022/4/30退租40G，退租后保底80G,10M</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="n">
+        <v>115.615531921</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y6" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>YANCCM</t>
+        </is>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>华东-吴蕊</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>王阳</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>182315IDC00158</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>盐城</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019/2/1
+2022/4/30</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>240G
+-40G</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.8399999999999892</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5661.6</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>202305</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>补提5月盐城移动带宽结算差异，结算116.46G，提115.62G，补0.84G</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>115.615531921</v>
+      </c>
+      <c r="W7" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="X7" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="Y7" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/temp/带宽.xlsx
+++ b/temp/带宽.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -638,30 +638,30 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>44835</v>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2019/2/1
+2022/4/30</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>300G</t>
+          <t>240G
+-40G</t>
         </is>
       </c>
       <c r="P2" t="n">
         <v>6740</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.74</v>
+        <v>115.62</v>
       </c>
       <c r="R2" t="n">
-        <v>813787.6</v>
+        <v>779278.8</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -670,33 +670,34 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
+          <t>2022.6该节点转为BEC使用。
+2022/4/30退租40G，退租后保底80G,10M</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>120.741</v>
+        <v>115.615531921</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>YANC3CM</t>
+          <t>YANCCM</t>
         </is>
       </c>
       <c r="AA2" t="n">
         <v>0.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC2" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +738,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -753,66 +754,58 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>44835</v>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2019/2/1
+2022/4/30</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>300G</t>
+          <t>240G
+-40G</t>
         </is>
       </c>
       <c r="P3" t="n">
         <v>6740</v>
       </c>
       <c r="Q3" t="n">
-        <v>120.1</v>
+        <v>0.8399999999999892</v>
       </c>
       <c r="R3" t="n">
-        <v>809474</v>
+        <v>5661.6</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
+          <t>补提5月盐城移动带宽结算差异，结算116.46G，提115.62G，补0.84G</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>120.101051331</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
+        <v>115.615531921</v>
+      </c>
+      <c r="W3" t="n">
+        <v>117.3</v>
+      </c>
       <c r="X3" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y3" s="2" t="n">
-        <v>45107</v>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>YANC3CM</t>
-        </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>120</v>
-      </c>
+        <v>45077</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -888,10 +881,10 @@
         <v>6740</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.10000000000001</v>
+        <v>120.74</v>
       </c>
       <c r="R4" t="n">
-        <v>310714</v>
+        <v>813787.6</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -900,26 +893,34 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>补提5月盐城3移动带宽结算差异，结算166.84G，提120.74G，补46.1G(更新流量)</t>
+          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
         <v>120.741</v>
       </c>
-      <c r="W4" t="n">
-        <v>166.84</v>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y4" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>YANC3CM</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -995,10 +996,10 @@
         <v>6740</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.110000000000014</v>
+        <v>120.1</v>
       </c>
       <c r="R5" t="n">
-        <v>61401.4</v>
+        <v>809474</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1007,26 +1008,34 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>补提6月盐城3移动带宽结算差异，结算129.21G，提120.1G，补9.11G</t>
+          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
         </is>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
         <v>120.101051331</v>
       </c>
-      <c r="W5" t="n">
-        <v>129.21</v>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y5" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>YANC3CM</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1066,7 +1075,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1082,30 +1091,30 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2019/2/1
-2022/4/30</t>
-        </is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>240G
--40G</t>
+          <t>300G</t>
         </is>
       </c>
       <c r="P6" t="n">
         <v>6740</v>
       </c>
       <c r="Q6" t="n">
-        <v>115.62</v>
+        <v>46.10000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>779278.8</v>
+        <v>310714</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1114,35 +1123,26 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2022.6该节点转为BEC使用。
-2022/4/30退租40G，退租后保底80G,10M</t>
+          <t>补提5月盐城3移动带宽结算差异，结算166.84G，提120.74G，补46.1G(更新流量)</t>
         </is>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>115.615531921</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
+        <v>120.741</v>
+      </c>
+      <c r="W6" t="n">
+        <v>166.84</v>
+      </c>
       <c r="X6" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y6" s="2" t="n">
-        <v>45077</v>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>YANCCM</t>
-        </is>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>80</v>
-      </c>
+        <v>45107</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1198,53 +1198,53 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2019/2/1
-2022/4/30</t>
-        </is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>240G
--40G</t>
+          <t>300G</t>
         </is>
       </c>
       <c r="P7" t="n">
         <v>6740</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8399999999999892</v>
+        <v>9.110000000000014</v>
       </c>
       <c r="R7" t="n">
-        <v>5661.6</v>
+        <v>61401.4</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>补提5月盐城移动带宽结算差异，结算116.46G，提115.62G，补0.84G</t>
+          <t>补提6月盐城3移动带宽结算差异，结算129.21G，提120.1G，补9.11G</t>
         </is>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>115.615531921</v>
+        <v>120.101051331</v>
       </c>
       <c r="W7" t="n">
-        <v>117.3</v>
+        <v>129.21</v>
       </c>
       <c r="X7" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y7" s="2" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>

--- a/temp/带宽.xlsx
+++ b/temp/带宽.xlsx
@@ -622,7 +622,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -638,30 +638,30 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2019/2/1
-2022/4/30</t>
-        </is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>240G
--40G</t>
+          <t>300G</t>
         </is>
       </c>
       <c r="P2" t="n">
         <v>6740</v>
       </c>
       <c r="Q2" t="n">
-        <v>115.62</v>
+        <v>120.74</v>
       </c>
       <c r="R2" t="n">
-        <v>779278.8</v>
+        <v>813787.6</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -670,34 +670,33 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2022.6该节点转为BEC使用。
-2022/4/30退租40G，退租后保底80G,10M</t>
+          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>115.615531921</v>
+        <v>120.741</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>YANCCM</t>
+          <t>YANC3CM</t>
         </is>
       </c>
       <c r="AA2" t="n">
         <v>0.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AC2" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +737,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -754,58 +753,66 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2019/2/1
-2022/4/30</t>
-        </is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>240G
--40G</t>
+          <t>300G</t>
         </is>
       </c>
       <c r="P3" t="n">
         <v>6740</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8399999999999892</v>
+        <v>120.1</v>
       </c>
       <c r="R3" t="n">
-        <v>5661.6</v>
+        <v>809474</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>补提5月盐城移动带宽结算差异，结算116.46G，提115.62G，补0.84G</t>
+          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>115.615531921</v>
-      </c>
-      <c r="W3" t="n">
-        <v>117.3</v>
-      </c>
+        <v>120.101051331</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y3" s="2" t="n">
-        <v>45077</v>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+        <v>45107</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>YANC3CM</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -881,10 +888,10 @@
         <v>6740</v>
       </c>
       <c r="Q4" t="n">
-        <v>120.74</v>
+        <v>46.10000000000001</v>
       </c>
       <c r="R4" t="n">
-        <v>813787.6</v>
+        <v>310714</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -893,34 +900,26 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
+          <t>补提5月盐城3移动带宽结算差异，结算166.84G，提120.74G，补46.1G(更新流量)</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
         <v>120.741</v>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>166.84</v>
+      </c>
       <c r="X4" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y4" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>YANC3CM</t>
-        </is>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>120</v>
-      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -996,10 +995,10 @@
         <v>6740</v>
       </c>
       <c r="Q5" t="n">
-        <v>120.1</v>
+        <v>9.110000000000014</v>
       </c>
       <c r="R5" t="n">
-        <v>809474</v>
+        <v>61401.4</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1008,34 +1007,26 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
+          <t>补提6月盐城3移动带宽结算差异，结算129.21G，提120.1G，补9.11G</t>
         </is>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
         <v>120.101051331</v>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>129.21</v>
+      </c>
       <c r="X5" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y5" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>YANC3CM</t>
-        </is>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>120</v>
-      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1075,7 +1066,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1091,30 +1082,30 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>44835</v>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2019/2/1
+2022/4/30</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>300G</t>
+          <t>240G
+-40G</t>
         </is>
       </c>
       <c r="P6" t="n">
         <v>6740</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.10000000000001</v>
+        <v>115.62</v>
       </c>
       <c r="R6" t="n">
-        <v>310714</v>
+        <v>779278.8</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1123,26 +1114,35 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>补提5月盐城3移动带宽结算差异，结算166.84G，提120.74G，补46.1G(更新流量)</t>
+          <t>2022.6该节点转为BEC使用。
+2022/4/30退租40G，退租后保底80G,10M</t>
         </is>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>120.741</v>
-      </c>
-      <c r="W6" t="n">
-        <v>166.84</v>
-      </c>
+        <v>115.615531921</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y6" s="2" t="n">
-        <v>45107</v>
-      </c>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+        <v>45077</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>YANCCM</t>
+        </is>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1198,53 +1198,53 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>44835</v>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2019/2/1
+2022/4/30</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>300G</t>
+          <t>240G
+-40G</t>
         </is>
       </c>
       <c r="P7" t="n">
         <v>6740</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.110000000000014</v>
+        <v>0.8399999999999892</v>
       </c>
       <c r="R7" t="n">
-        <v>61401.4</v>
+        <v>5661.6</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>补提6月盐城3移动带宽结算差异，结算129.21G，提120.1G，补9.11G</t>
+          <t>补提5月盐城移动带宽结算差异，结算116.46G，提115.62G，补0.84G</t>
         </is>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>120.101051331</v>
+        <v>115.615531921</v>
       </c>
       <c r="W7" t="n">
-        <v>129.21</v>
+        <v>117.3</v>
       </c>
       <c r="X7" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y7" s="2" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>

--- a/temp/带宽.xlsx
+++ b/temp/带宽.xlsx
@@ -622,7 +622,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -638,30 +638,30 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>44835</v>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2019/2/1
+2022/4/30</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>300G</t>
+          <t>240G
+-40G</t>
         </is>
       </c>
       <c r="P2" t="n">
         <v>6740</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.74</v>
+        <v>115.62</v>
       </c>
       <c r="R2" t="n">
-        <v>813787.6</v>
+        <v>779278.8</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -670,33 +670,34 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
+          <t>2022.6该节点转为BEC使用。
+2022/4/30退租40G，退租后保底80G,10M</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>120.741</v>
+        <v>115.615531921</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>YANC3CM</t>
+          <t>YANCCM</t>
         </is>
       </c>
       <c r="AA2" t="n">
         <v>0.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC2" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +738,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>182315IDC00158</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -753,66 +754,58 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>44835</v>
+          <t>盐城移动</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2019/2/1
+2022/4/30</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>300G</t>
+          <t>240G
+-40G</t>
         </is>
       </c>
       <c r="P3" t="n">
         <v>6740</v>
       </c>
       <c r="Q3" t="n">
-        <v>120.1</v>
+        <v>0.8399999999999892</v>
       </c>
       <c r="R3" t="n">
-        <v>809474</v>
+        <v>5661.6</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>202306</t>
+          <t>202305</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
+          <t>补提5月盐城移动带宽结算差异，结算116.46G，提115.62G，补0.84G</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>120.101051331</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
+        <v>115.615531921</v>
+      </c>
+      <c r="W3" t="n">
+        <v>117.3</v>
+      </c>
       <c r="X3" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y3" s="2" t="n">
-        <v>45107</v>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>YANC3CM</t>
-        </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>120</v>
-      </c>
+        <v>45077</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -888,10 +881,10 @@
         <v>6740</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.10000000000001</v>
+        <v>120.74</v>
       </c>
       <c r="R4" t="n">
-        <v>310714</v>
+        <v>813787.6</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -900,26 +893,34 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>补提5月盐城3移动带宽结算差异，结算166.84G，提120.74G，补46.1G(更新流量)</t>
+          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
         <v>120.741</v>
       </c>
-      <c r="W4" t="n">
-        <v>166.84</v>
-      </c>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y4" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>YANC3CM</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -995,10 +996,10 @@
         <v>6740</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.110000000000014</v>
+        <v>120.1</v>
       </c>
       <c r="R5" t="n">
-        <v>61401.4</v>
+        <v>809474</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -1007,26 +1008,34 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>补提6月盐城3移动带宽结算差异，结算129.21G，提120.1G，补9.11G</t>
+          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
         </is>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
         <v>120.101051331</v>
       </c>
-      <c r="W5" t="n">
-        <v>129.21</v>
-      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y5" s="2" t="n">
         <v>45107</v>
       </c>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>YANC3CM</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1066,7 +1075,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1082,30 +1091,30 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2019/2/1
-2022/4/30</t>
-        </is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>240G
--40G</t>
+          <t>300G</t>
         </is>
       </c>
       <c r="P6" t="n">
         <v>6740</v>
       </c>
       <c r="Q6" t="n">
-        <v>115.62</v>
+        <v>46.10000000000001</v>
       </c>
       <c r="R6" t="n">
-        <v>779278.8</v>
+        <v>310714</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1114,35 +1123,26 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2022.6该节点转为BEC使用。
-2022/4/30退租40G，退租后保底80G,10M</t>
+          <t>补提5月盐城3移动带宽结算差异，结算166.84G，提120.74G，补46.1G(更新流量)</t>
         </is>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>115.615531921</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
+        <v>120.741</v>
+      </c>
+      <c r="W6" t="n">
+        <v>166.84</v>
+      </c>
       <c r="X6" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y6" s="2" t="n">
-        <v>45077</v>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>YANCCM</t>
-        </is>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>80</v>
-      </c>
+        <v>45107</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>182315IDC00077</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1198,53 +1198,53 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2019/2/1
-2022/4/30</t>
-        </is>
+          <t>盐城3移动</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CDNYANCCM2</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>44835</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>240G
--40G</t>
+          <t>300G</t>
         </is>
       </c>
       <c r="P7" t="n">
         <v>6740</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8399999999999892</v>
+        <v>9.110000000000014</v>
       </c>
       <c r="R7" t="n">
-        <v>5661.6</v>
+        <v>61401.4</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202306</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>补提5月盐城移动带宽结算差异，结算116.46G，提115.62G，补0.84G</t>
+          <t>补提6月盐城3移动带宽结算差异，结算129.21G，提120.1G，补9.11G</t>
         </is>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>115.615531921</v>
+        <v>120.101051331</v>
       </c>
       <c r="W7" t="n">
-        <v>117.3</v>
+        <v>129.21</v>
       </c>
       <c r="X7" s="2" t="n">
         <v>44927</v>
       </c>
       <c r="Y7" s="2" t="n">
-        <v>45077</v>
+        <v>45107</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>

--- a/temp/带宽.xlsx
+++ b/temp/带宽.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>本月返回</t>
+          <t>新返回合同核对</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -587,32 +587,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>第三方</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>华东-吴蕊</t>
+          <t>LJ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>王阳</t>
+          <t>陈媛媛</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+          <t>上海小度人工智能有限公司</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>盐城移动</t>
+          <t>上海小度-PCDN</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -622,113 +622,96 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>L20230605004</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CDN带宽</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>盐城</t>
-        </is>
-      </c>
+          <t>PCDN带宽</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>盐城移动</t>
+          <t>PCDN小度_喜马拉雅</t>
         </is>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2019/2/1
-2022/4/30</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>240G
--40G</t>
-        </is>
-      </c>
+      <c r="N2" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>6740</v>
+        <v>2241</v>
       </c>
       <c r="Q2" t="n">
-        <v>115.62</v>
+        <v>125.8</v>
       </c>
       <c r="R2" t="n">
-        <v>779278.8</v>
+        <v>269286.03</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>2022.6该节点转为BEC使用。
-2022/4/30退租40G，退租后保底80G,10M</t>
+          <t>月95，进制1000，包头1.1</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>115.615531921</v>
+        <v>125.8</v>
       </c>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>45077</v>
-      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>YANCCM</t>
+          <t>bdpcdn_xiaodu_ximalaya</t>
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>第三方</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>华东-吴蕊</t>
+          <t>LJ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>王阳</t>
+          <t>陈媛媛</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+          <t>上海小度人工智能有限公司</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>盐城移动</t>
+          <t>上海小度-PCDN</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -738,104 +721,103 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>182315IDC00158</t>
+          <t>L20230701014</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CDN带宽</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>盐城</t>
-        </is>
-      </c>
+          <t>PCDN带宽</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
-          <t>盐城移动</t>
+          <t>PCDN小度_全民K歌</t>
         </is>
       </c>
       <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>2019/2/1
-2022/4/30</t>
-        </is>
+      <c r="N3" s="2" t="n">
+        <v>45078</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>240G
--40G</t>
+          <t>0-300G</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>6740</v>
+        <v>2520</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8399999999999892</v>
+        <v>28</v>
       </c>
       <c r="R3" t="n">
-        <v>5661.6</v>
+        <v>69213.5</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>补提5月盐城移动带宽结算差异，结算116.46G，提115.62G，补0.84G</t>
+          <t>价格：0-300g，2520元/g/月
+超过300g，2340元/g/月 。1.价格：0-300g，2520元/g/月
+超过300g，2340元/g/月 
+2.计费方式：月95；
+3.包头系数：1.1；
+4.进制：1000；</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>115.615531921</v>
-      </c>
-      <c r="W3" t="n">
-        <v>117.3</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>45077</v>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>bdpcdn_xiaodu_qmkg</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
       <c r="AC3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>第三方</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>华东-吴蕊</t>
+          <t>LJ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>全国</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>王阳</t>
+          <t>陈媛媛</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
+          <t>上海小度人工智能有限公司</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>盐城移动</t>
+          <t>上海小度-PCDN</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -845,411 +827,71 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>182315IDC00077</t>
+          <t>L20230701014</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CDN带宽</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>盐城</t>
-        </is>
-      </c>
+          <t>PCDN带宽</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
+          <t>PCDN小度_全民K歌</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" s="2" t="n">
-        <v>44835</v>
+        <v>45078</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>300G</t>
+          <t>300以上</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>6740</v>
+        <v>2340</v>
       </c>
       <c r="Q4" t="n">
-        <v>120.74</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>813787.6</v>
+        <v>0</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>202305</t>
+          <t>202307</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
+          <t>价格：0-300g，2520元/g/月
+超过300g，2340元/g/月 。1.价格：0-300g，2520元/g/月
+超过300g，2340元/g/月 
+2.计费方式：月95；
+3.包头系数：1.1；
+4.进制：1000；</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="n">
-        <v>120.741</v>
-      </c>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>45107</v>
-      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>YANC3CM</t>
+          <t>bdpcdn_xiaodu_qmkg</t>
         </is>
       </c>
       <c r="AA4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>华东-吴蕊</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>带宽</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>182315IDC00077</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>CDN带宽</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>盐城</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>44835</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>300G</t>
-        </is>
-      </c>
-      <c r="P5" t="n">
-        <v>6740</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>120.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>809474</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>202306</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>100G+200G分两组核算，需根据各自实际流量分别计算保底【BEC新建】300G，保底120G。计提参考值</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="n">
-        <v>120.101051331</v>
-      </c>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>45107</v>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>YANC3CM</t>
-        </is>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>华东-吴蕊</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>带宽</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>182315IDC00077</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>CDN带宽</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>盐城</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>44835</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>300G</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>6740</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>46.10000000000001</v>
-      </c>
-      <c r="R6" t="n">
-        <v>310714</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>202305</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>补提5月盐城3移动带宽结算差异，结算166.84G，提120.74G，补46.1G(更新流量)</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="n">
-        <v>120.741</v>
-      </c>
-      <c r="W6" t="n">
-        <v>166.84</v>
-      </c>
-      <c r="X6" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>45107</v>
-      </c>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>移动</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>华东-吴蕊</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>王阳</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>中国移动通信集团江苏有限公司盐城分公司</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>盐城移动</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>带宽</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>182315IDC00077</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>CDN带宽</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>盐城</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>盐城3移动</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>CDNYANCCM2</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>44835</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>300G</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>6740</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>9.110000000000014</v>
-      </c>
-      <c r="R7" t="n">
-        <v>61401.4</v>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>202306</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>补提6月盐城3移动带宽结算差异，结算129.21G，提120.1G，补9.11G</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="n">
-        <v>120.101051331</v>
-      </c>
-      <c r="W7" t="n">
-        <v>129.21</v>
-      </c>
-      <c r="X7" s="2" t="n">
-        <v>44927</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>45107</v>
-      </c>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/temp/带宽.xlsx
+++ b/temp/带宽.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>新返回合同核对</t>
+          <t>当月返回合同</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -587,7 +587,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>第三方</t>
+          <t>代理商-电信</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -597,22 +597,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>陈媛媛</t>
+          <t>王超越</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>上海小度人工智能有限公司</t>
+          <t>上海云瑞智通实业有限公司</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>上海小度-PCDN</t>
+          <t>云瑞智通</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -622,71 +622,89 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L20230605004</t>
+          <t>182315IDC00313</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>PCDN带宽</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>兰州</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>PCDN小度_喜马拉雅</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr"/>
+          <t>兰州6电信</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>CACDNLZCT</t>
+        </is>
+      </c>
       <c r="N2" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>44441</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>100G</t>
+        </is>
+      </c>
       <c r="P2" t="n">
-        <v>2241</v>
+        <v>4600</v>
       </c>
       <c r="Q2" t="n">
-        <v>125.8</v>
+        <v>33.5</v>
       </c>
       <c r="R2" t="n">
-        <v>269286.03</v>
+        <v>154100</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>月95，进制1000，包头1.1</t>
+          <t>202310按照均值计提。需要注意202307价格变动。（1）20210902开始计费，颗粒度100M，保底30G</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+        <v>32.930099487</v>
+      </c>
+      <c r="W2" t="n">
+        <v>34.03</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>45382</v>
+      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>bdpcdn_xiaodu_ximalaya</t>
+          <t>LZ6CT</t>
         </is>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>第三方</t>
+          <t>代理商-电信</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -696,22 +714,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>全国</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>陈媛媛</t>
+          <t>王超越</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>上海小度人工智能有限公司</t>
+          <t>上海云瑞智通实业有限公司</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>上海小度-PCDN</t>
+          <t>云瑞智通</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -721,177 +739,82 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L20230701014</t>
+          <t>182315IDC00137</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>PCDN带宽</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>黄石</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>PCDN小度_全民K歌</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr"/>
+          <t>黄石6电信</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>CACDNHSCT</t>
+        </is>
+      </c>
       <c r="N3" s="2" t="n">
-        <v>45078</v>
+        <v>44470</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0-300G</t>
+          <t>200G</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2520</v>
+        <v>13750</v>
       </c>
       <c r="Q3" t="n">
-        <v>28</v>
+        <v>56.5</v>
       </c>
       <c r="R3" t="n">
-        <v>69213.5</v>
+        <v>776875</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>202307</t>
+          <t>202310</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>价格：0-300g，2520元/g/月
-超过300g，2340元/g/月 。1.价格：0-300g，2520元/g/月
-超过300g，2340元/g/月 
-2.计费方式：月95；
-3.包头系数：1.1；
-4.进制：1000；</t>
+          <t>（1）2022年4月1日起为平均流量计费，保底40G（2）20211001开始计费，95计费，颗粒度100，保底60G；（3）甲乙双方实际流量以100M为结算单位，不足50M按照0M收取，大于等于50M按100M收取</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>28</v>
+        <v>56.434692383</v>
       </c>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="X3" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>45382</v>
+      </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>bdpcdn_xiaodu_qmkg</t>
+          <t>HS6CT</t>
         </is>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>第三方</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LJ</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>全国</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>陈媛媛</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>上海小度人工智能有限公司</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>上海小度-PCDN</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>带宽</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>L20230701014</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>PCDN带宽</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>PCDN小度_全民K歌</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" s="2" t="n">
-        <v>45078</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>300以上</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>2340</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>202307</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>价格：0-300g，2520元/g/月
-超过300g，2340元/g/月 。1.价格：0-300g，2520元/g/月
-超过300g，2340元/g/月 
-2.计费方式：月95；
-3.包头系数：1.1；
-4.进制：1000；</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>bdpcdn_xiaodu_qmkg</t>
-        </is>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/temp/带宽.xlsx
+++ b/temp/带宽.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>当月返回合同</t>
+          <t>是否本月新返回合同</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -582,238 +578,6 @@
         <is>
           <t>保底量</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>代理商-电信</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>LJ</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>甘肃</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>王超越</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>上海云瑞智通实业有限公司</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>云瑞智通</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>带宽</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>182315IDC00313</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>CDN带宽</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>兰州</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>兰州6电信</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>CACDNLZCT</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>44441</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>100G</t>
-        </is>
-      </c>
-      <c r="P2" t="n">
-        <v>4600</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>154100</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>202310</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>202310按照均值计提。需要注意202307价格变动。（1）20210902开始计费，颗粒度100M，保底30G</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="n">
-        <v>32.930099487</v>
-      </c>
-      <c r="W2" t="n">
-        <v>34.03</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>45382</v>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>LZ6CT</t>
-        </is>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>代理商-电信</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>LJ</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>湖北</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>王超越</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>上海云瑞智通实业有限公司</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>云瑞智通</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>带宽</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>182315IDC00137</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>CDN带宽</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>黄石</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>黄石6电信</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>CACDNHSCT</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>44470</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>200G</t>
-        </is>
-      </c>
-      <c r="P3" t="n">
-        <v>13750</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>56.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>776875</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>202310</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>（1）2022年4月1日起为平均流量计费，保底40G（2）20211001开始计费，95计费，颗粒度100，保底60G；（3）甲乙双方实际流量以100M为结算单位，不足50M按照0M收取，大于等于50M按100M收取</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="n">
-        <v>56.434692383</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" s="2" t="n">
-        <v>45017</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>45382</v>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>HS6CT</t>
-        </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>200</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/temp/带宽.xlsx
+++ b/temp/带宽.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +480,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>是否本月新返回合同</t>
+          <t>当月返回合同</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -579,6 +583,4027 @@
           <t>保底量</t>
         </is>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>成都2+3+4+5</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>成都移动3</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>CDNCDCM3</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2019/2/1 2019/2/1 2019/2/1 2019/3/1
+2020/7/1
+2022/5/15
+2022/5/31
+2022/5/31
+2022/8/31</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>120G+120G+240G +200G+100G-100G-80G-20G-440G</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>61.01</v>
+      </c>
+      <c r="R2" t="n">
+        <v>411207.4</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>202307</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">（1）需要注意成都3移动20200701扩容100G，20220515成都2移动退租100G，20220531成都3移动退租80G.颗粒度10M，20220531成都2移动退租20G.保底40%。（2）历史备注信息：1. 2019年1月3日扩容的CD2CM + CD3+ CD4CM总计160G，2019年2月1日开始计费，因存增量达到400G以上，故2月份账期存增量同步降价为6000元/G/月；
+2. 2019年2月1日新建CD5CM节点200G，2019年3月1日开始计费，且提供为期5个月无保底优惠策略）
+</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="n">
+        <v>61.014083862</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>CD3CM</t>
+        </is>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>140</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>成都4移动</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>CDNCDCM3</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>240G</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>99.66</v>
+      </c>
+      <c r="R3" t="n">
+        <v>671708.4</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>202307</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>20220901开始拆分计费。颗粒度10M，保底96G</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>99.65831756599999</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>CD4CM</t>
+        </is>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>240</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>成都5移动</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>CDNCDCM4</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>200G</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>87.97</v>
+      </c>
+      <c r="R4" t="n">
+        <v>592917.8</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>202307</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>20220901开始拆分计费。颗粒度10M，保底80G</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="n">
+        <v>87.974281311</v>
+      </c>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>CD5CM</t>
+        </is>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>成都11移动</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>CDNCDCM5</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2022/12/22
+2023/1/13</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>10G+10G</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>53920</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>202307</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>202307按照保底计提。20221222开始计费。20230113扩容10G开始机房。边缘计算，保底8G</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="n">
+        <v>7.414996099</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>CD11CM</t>
+        </is>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L20230417003</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>成都三级移动</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>CDNCDIX</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2023/4/6
+2023/5/4</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>160G+40G</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>202307</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>20230406开始计费，20230504扩容40G开始计费。颗粒度10M，保底80G</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L20230417003</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>IDC带宽</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>CDMT-移动CDN</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>CDMT</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2023/4/6
+2023/5/4</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>160G+40G</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>80.91</v>
+      </c>
+      <c r="R7" t="n">
+        <v>545333.4</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>202307</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>CDMT-移动CDN=成都三级移动。2023年6月开始看IDC出数</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="n">
+        <v>80.91328788548699</v>
+      </c>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>CDMT-CM-ST-1</t>
+        </is>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L20230417003</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>BGP带宽</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>CDMT-移动_BGP</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>CDMT</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0.1G</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>12000</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>202307</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>20230701开始计费，包端口</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="n">
+        <v>2.5033e-05</v>
+      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>CDMT-CM-BGP-1</t>
+        </is>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>成都2+3+4+5</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>成都移动3</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>CDNCDCM3</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2019/2/1 2019/2/1 2019/2/1 2019/3/1
+2020/7/1
+2022/5/15
+2022/5/31
+2022/5/31
+2022/8/31</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>120G+120G+240G +200G+100G-100G-80G-20G-440G</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>62.47</v>
+      </c>
+      <c r="R9" t="n">
+        <v>421047.8</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">（1）需要注意成都3移动20200701扩容100G，20220515成都2移动退租100G，20220531成都3移动退租80G.颗粒度10M，20220531成都2移动退租20G.保底40%。（2）历史备注信息：1. 2019年1月3日扩容的CD2CM + CD3+ CD4CM总计160G，2019年2月1日开始计费，因存增量达到400G以上，故2月份账期存增量同步降价为6000元/G/月；
+2. 2019年2月1日新建CD5CM节点200G，2019年3月1日开始计费，且提供为期5个月无保底优惠策略）
+</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="n">
+        <v>62.473899841</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>CD3CM</t>
+        </is>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>成都4移动</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>CDNCDCM3</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2022/9/1
+2023/8/31</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>240G-120G</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>406422</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>20220901开始拆分计费。颗粒度10M，保底96G</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>60.3032341</v>
+      </c>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>CD4CM</t>
+        </is>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>成都5移动</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>CDNCDCM4</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>200G</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>90.92</v>
+      </c>
+      <c r="R11" t="n">
+        <v>612800.8</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>20220901开始拆分计费。颗粒度10M，保底80G</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>90.91549682599999</v>
+      </c>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>CD5CM</t>
+        </is>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>成都11移动</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>CDNCDCM5</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2022/12/22
+2023/1/13</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>10G+10G</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>53920</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>202310按照保底计提。20221222开始计费。20230113扩容10G开始机房。边缘计算，保底8G</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>7.418010765</v>
+      </c>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>CD11CM</t>
+        </is>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L20230417003</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>成都三级移动</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>CDNCDIX</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2023/4/6
+2023/5/4
+2023/9/19</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>160G+40G+60G</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>20230406开始计费，20230504扩容40G开始计费。20230919扩容60G开始计费。颗粒度10M，保底104G</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>L20230417003</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>IDC带宽</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>CDMT-移动CDN</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>CDMT</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2023/4/6
+2023/5/4
+2023/9/19</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>160G+40G+60G</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>111.47</v>
+      </c>
+      <c r="R14" t="n">
+        <v>751307.8</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>CDMT-移动CDN=成都三级移动。2023年6月开始看IDC出数.20230406开始计费，20230504扩容40G开始计费。20230919扩容60G开始计费。颗粒度10M，保底104G</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>111.47003519908</v>
+      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>CDMT-CM-ST-1</t>
+        </is>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>L20230417003</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>BGP带宽</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>CDMT-移动_BGP</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>CDMT</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.1G</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>12000</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>202310</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>202310按照保底计提。20230701开始计费，包端口</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="n">
+        <v>1.037e-05</v>
+      </c>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>CDMT-CM-BGP-1</t>
+        </is>
+      </c>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>成都2+3+4+5</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>成都移动3</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>CDNCDCM3</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2019/2/1 2019/2/1 2019/2/1 2019/3/1
+2020/7/1
+2022/5/15
+2022/5/31
+2022/5/31
+2022/8/31</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>120G+120G+240G +200G+100G-100G-80G-20G-440G</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2426.4</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>补202309，已计提59.67，结算60.03，补0.36</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>成都4移动</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>CDNCDCM3</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2022/9/1
+2023/8/31</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>240G-120G</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2763.4</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>补202309，已计提49.88，结算50.29，补0.41</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>L20230417003</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>IDC带宽</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>CDMT-移动CDN</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>CDMT</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2023/4/6
+2023/5/4
+2023/9/19</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>160G+40G+60G</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R18" t="n">
+        <v>18063.2</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>补202309，已计提105.85，先按照均值108.53，补2.68</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>成都2+3+4+5</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>成都移动3</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>CDNCDCM3</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2019/2/1 2019/2/1 2019/2/1 2019/3/1
+2020/7/1
+2022/5/15
+2022/5/31
+2022/5/31
+2022/8/31</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>120G+120G+240G +200G+100G-100G-80G-20G-440G</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>61.33</v>
+      </c>
+      <c r="R19" t="n">
+        <v>413364.2</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">需要注意资源变动。（1）需要注意成都3移动20200701扩容100G，20220515成都2移动退租100G，20220531成都3移动退租80G.颗粒度10M，20220531成都2移动退租20G.保底40%。（2）历史备注信息：1. 2019年1月3日扩容的CD2CM + CD3+ CD4CM总计160G，2019年2月1日开始计费，因存增量达到400G以上，故2月份账期存增量同步降价为6000元/G/月；
+2. 2019年2月1日新建CD5CM节点200G，2019年3月1日开始计费，且提供为期5个月无保底优惠策略）
+</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="n">
+        <v>61.329669952</v>
+      </c>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>CD3CM</t>
+        </is>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>140</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>成都4移动</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>CDNCDCM3</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>240G</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>100.56</v>
+      </c>
+      <c r="R20" t="n">
+        <v>677774.4</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>20220901开始拆分计费。颗粒度10M，保底96G</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="n">
+        <v>100.556236267</v>
+      </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>CD4CM</t>
+        </is>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>240</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>成都5移动</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>CDNCDCM4</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>200G</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>87.77</v>
+      </c>
+      <c r="R21" t="n">
+        <v>591569.8</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>20220901开始拆分计费。颗粒度10M，保底80G</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="n">
+        <v>87.774497986</v>
+      </c>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>CD5CM</t>
+        </is>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>成都11移动</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>CDNCDCM5</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2022/12/22
+2023/1/13</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>10G+10G</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>8</v>
+      </c>
+      <c r="R22" t="n">
+        <v>53920</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>202308按照保底计提。20221222开始计费。20230113扩容10G开始机房。边缘计算，保底8G</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="n">
+        <v>7.685587523</v>
+      </c>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>CD11CM</t>
+        </is>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>L20230417003</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>成都三级移动</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>CDNCDIX</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2023/4/6
+2023/5/4</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>160G+40G</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>20230406开始计费，20230504扩容40G开始计费。颗粒度10M，保底80G</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>L20230417003</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>IDC带宽</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>CDMT-移动CDN</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>CDMT</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2023/4/6
+2023/5/4</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>160G+40G</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>83.06999999999999</v>
+      </c>
+      <c r="R24" t="n">
+        <v>559891.8</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>CDMT-移动CDN=成都三级移动。2023年6月开始看IDC出数</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="n">
+        <v>83.067818551324</v>
+      </c>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>CDMT-CM-ST-1</t>
+        </is>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>L20230417003</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>BGP带宽</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>CDMT-移动_BGP</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>CDMT</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0.1G</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>12000</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>202308按照保底计提。20230701开始计费，包端口</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="n">
+        <v>1.0483e-05</v>
+      </c>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>CDMT-CM-BGP-1</t>
+        </is>
+      </c>
+      <c r="AA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>成都2+3+4+5</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>成都移动3</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>CDNCDCM3</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2019/2/1 2019/2/1 2019/2/1 2019/3/1
+2020/7/1
+2022/5/15
+2022/5/31
+2022/5/31
+2022/8/31</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>120G+120G+240G +200G+100G-100G-80G-20G-440G</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4313.6</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>202307</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>补202307，已计提61.01，结算61.65，补0.64</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>成都4移动</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>CDNCDCM3</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>240G</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7144.4</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>202307</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>补202307，已计提99.66，结算100.72，补1.06</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>成都2+3+4+5</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>成都移动3</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>CDNCDCM3</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2019/2/1 2019/2/1 2019/2/1 2019/3/1
+2020/7/1
+2022/5/15
+2022/5/31
+2022/5/31
+2022/8/31</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>120G+120G+240G +200G+100G-100G-80G-20G-440G</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>59.67</v>
+      </c>
+      <c r="R28" t="n">
+        <v>402175.8</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">需要注意资源变动。（1）需要注意成都3移动20200701扩容100G，20220515成都2移动退租100G，20220531成都3移动退租80G.颗粒度10M，20220531成都2移动退租20G.保底40%。（2）历史备注信息：1. 2019年1月3日扩容的CD2CM + CD3+ CD4CM总计160G，2019年2月1日开始计费，因存增量达到400G以上，故2月份账期存增量同步降价为6000元/G/月；
+2. 2019年2月1日新建CD5CM节点200G，2019年3月1日开始计费，且提供为期5个月无保底优惠策略）
+</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="n">
+        <v>59.670589447</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>CD3CM</t>
+        </is>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>140</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>成都4移动</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>CDNCDCM3</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2022/9/1
+2023/8/31</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>240G-120G</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>49.88</v>
+      </c>
+      <c r="R29" t="n">
+        <v>336191.2</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>20220901开始拆分计费。颗粒度10M，保底96G</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="n">
+        <v>49.877929688</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>CD4CM</t>
+        </is>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>成都5移动</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>CDNCDCM4</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>200G</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>85.04000000000001</v>
+      </c>
+      <c r="R30" t="n">
+        <v>573169.6</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>20220901开始拆分计费。颗粒度10M，保底80G</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="n">
+        <v>85.044517517</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>CD5CM</t>
+        </is>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>200</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>成都11移动</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>CDNCDCM5</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2022/12/22
+2023/1/13</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>10G+10G</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>8</v>
+      </c>
+      <c r="R31" t="n">
+        <v>53920</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>202309按照保底计提。20221222开始计费。20230113扩容10G开始机房。边缘计算，保底8G</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="n">
+        <v>7.49735709</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>CD11CM</t>
+        </is>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>L20230417003</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>成都三级移动</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>CDNCDIX</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2023/4/6
+2023/5/4
+2023/9/19</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>160G+40G+60G</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>20230406开始计费，20230504扩容40G开始计费。20230919扩容60G开始计费。颗粒度10M，保底104G</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>L20230417003</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>IDC带宽</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>CDMT-移动CDN</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>CDMT</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2023/4/6
+2023/5/4
+2023/9/19</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>160G+40G+60G</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>105.85</v>
+      </c>
+      <c r="R33" t="n">
+        <v>713429</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>CDMT-移动CDN=成都三级移动。2023年6月开始看IDC出数.20230406开始计费，20230504扩容40G开始计费。20230919扩容60G开始计费。颗粒度10M，保底104G</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="n">
+        <v>105.85207403079</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>CDMT-CM-ST-1</t>
+        </is>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>260</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>L20230417003</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>BGP带宽</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>CDMT-移动_BGP</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>CDMT</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0.1G</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>12000</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>202309</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>20230701开始计费，包端口</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="n">
+        <v>1.0732e-05</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>CDMT-CM-BGP-1</t>
+        </is>
+      </c>
+      <c r="AA34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>成都2+3+4+5</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>成都移动3</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>CDNCDCM3</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2019/2/1 2019/2/1 2019/2/1 2019/3/1
+2020/7/1
+2022/5/15
+2022/5/31
+2022/5/31
+2022/8/31</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>120G+120G+240G +200G+100G-100G-80G-20G-440G</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2830.8</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>补202308，已计提61.33，结算61.75，补0.42</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>L20230423017</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>成都4移动</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>CDNCDCM3</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>240G</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6335.6</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>补202308，已计提100.56，结算101.5，补0.94</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>华南</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>王腾</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>中国移动通信集团四川有限公司</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>成都移动</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>L20230417003</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>IDC带宽</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>CDMT-移动CDN</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>CDMT</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2023/4/6
+2023/5/4</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>160G+40G</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>6740</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R37" t="n">
+        <v>8896.799999999999</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>202308</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>补202308，已计提83.07，先按照均值84.39，补1.32</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/temp/带宽.xlsx
+++ b/temp/带宽.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,32 +583,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>代理商-电信</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>华北-lijia</t>
+          <t>LJ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>崔益泽</t>
+          <t>陈媛媛</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>中国联合网络通信有限公司中卫市分公司</t>
+          <t>吉林省优果网络传媒有限公司</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>宁夏联通</t>
+          <t>吉林优果</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L20230727010</t>
+          <t>182315IDC00292</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -629,35 +629,35 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>中卫ZW2UN</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>中卫2联通</t>
+          <t>沈阳3电信</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>CDNZWUN2</t>
+          <t>CACDNSYCT</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>45117</v>
+        <v>44348</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>160G</t>
+          <t>60G</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>9000</v>
+        <v>3333.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.90000000000001</v>
+        <v>23.5</v>
       </c>
       <c r="R2" t="n">
-        <v>863100</v>
+        <v>78333.25999999999</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -666,31 +666,151 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>按中值计提，【BEC新建】BEC宁夏中卫联通新建160G  2023-06-29节点正式上线  (ZW2UN)，7月10日开始计费</t>
+          <t>需要注意202306价格变动。202111对账需要注意故障是否扣减；20210601开始计费，颗粒度100M，保底18G</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>94.85069426699999</v>
-      </c>
-      <c r="W2" t="n">
-        <v>96.93000000000001</v>
-      </c>
+        <v>23.489706039</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="n">
-        <v>95.8903471335</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
+        <v>11.7448530195</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>45443</v>
+      </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>ZW2UN</t>
+          <t>SY3CT</t>
         </is>
       </c>
       <c r="AB2" t="n">
         <v>0.3</v>
       </c>
       <c r="AC2" t="n">
-        <v>160</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>代理商-移动</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>陈媛媛</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>吉林省优果网络传媒有限公司</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>吉林优果</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>带宽</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>182315IDC00293</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>CDN带宽</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>天津4移动</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>CACDNTJCM2</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2021/6/10
+2022/7/31</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>200G-160G</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>40</v>
+      </c>
+      <c r="R3" t="n">
+        <v>140000</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>202311</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>202311按照保底计提。20220731退租160G。需要注意202208价格变动（1）20210610开始计费，颗粒度100M，保底100G；20220801开始为包端口（2）甲乙双方实际流量以100M为结算单位，不足50M按照0M收取，大于等于50M按100M收取</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>31.277933121</v>
+      </c>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>15.6389665605</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>45078</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>45443</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>TJ4CM</t>
+        </is>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
